--- a/Racismo/Base_estados_mexicanos_normalizada.xlsx
+++ b/Racismo/Base_estados_mexicanos_normalizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Followers</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Engagements</t>
+          <t>Count_negativo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>% Odio</t>
         </is>
       </c>
     </row>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002582866573124498</v>
+        <v>0.02335766423357664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002173415694349119</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01219512195121951</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03841788252472593</v>
+        <v>0.05693430656934306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003317318691374972</v>
+        <v>0.015</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1036585365853658</v>
+        <v>0.08013937282229966</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04398193039093782</v>
+        <v>0.02335766423357664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01487073896133608</v>
+        <v>0.02</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08536585365853658</v>
+        <v>0.492063492063492</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04552765768129499</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0426829268292683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001161672047242598</v>
+        <v>0.01167883211678832</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006097560975609756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01499051269473692</v>
+        <v>0.0875912408759124</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3800045756119881</v>
+        <v>0.065</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1036585365853658</v>
+        <v>0.3732718894009217</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009105151283543044</v>
+        <v>0.01313868613138686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002974147792267216</v>
+        <v>0.005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03048780487804879</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01389348360920668</v>
+        <v>0.03503649635036496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004690002287805994</v>
+        <v>0.03</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.4725274725274725</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03475034507933973</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08487760237931824</v>
+        <v>0.225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.201219512195122</v>
+        <v>0.6135662898252825</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.5258889582033688</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01849739336763213</v>
+        <v>0.02627737226277372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0170441546556852</v>
+        <v>0.04</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07926829268292683</v>
+        <v>0.8857142857142857</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02480293402995631</v>
+        <v>0.07445255474452554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02345001143902997</v>
+        <v>0.08</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1097560975609756</v>
+        <v>0.5902964959568733</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04942334675625421</v>
+        <v>0.3985401459854014</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02001830244795241</v>
+        <v>0.345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3658536585365854</v>
+        <v>0.4389610389610388</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.80252715955024e-06</v>
+        <v>0.00145985401459854</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006097560975609756</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08766536239985094</v>
+        <v>0.2306569343065693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0495309997712194</v>
+        <v>0.195</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3170731707317073</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0263011297308191</v>
+        <v>0.02043795620437956</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003431708991077557</v>
+        <v>0.02</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03048780487804879</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02330093580193397</v>
+        <v>0.1197080291970803</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01429878746282315</v>
+        <v>0.095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.401360544217687</v>
       </c>
     </row>
     <row r="20">
@@ -750,156 +750,140 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1316368358411</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003889270189887898</v>
+        <v>0.08499999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2317073170731707</v>
+        <v>0.3914656771799629</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Quintana Roo</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.003905195392858093</v>
+        <v>0.01167883211678832</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002173415694349119</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01219512195121951</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>San Luis Potosí</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001201598582417875</v>
+        <v>0.06131386861313869</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01829268292682927</v>
+        <v>0.6883116883116882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Sinaloa</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01647920207770084</v>
+        <v>0.05401459854014598</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004118050789293068</v>
+        <v>0.035</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.326007326007326</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01625009981633794</v>
+        <v>0.02773722627737226</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01876000915122398</v>
+        <v>0.04</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1036585365853658</v>
+        <v>0.8367346938775508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001535270340668408</v>
+        <v>0.00875912408759124</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006863417982155113</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01829268292682927</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Tamaulipas</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02573645444762589</v>
+        <v>0.07007299270072992</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001830244795241364</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03658536585365854</v>
+        <v>0.5428571428571427</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Veracruz</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008668811291984654</v>
+        <v>0.05401459854014598</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005605124685426676</v>
+        <v>0.08</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1219512195121951</v>
+        <v>0.8534798534798536</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Yucatán</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1547020149591419</v>
+        <v>0.02043795620437956</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02596659803248685</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1036585365853658</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Zacatecas</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>8.555686108988039e-06</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0009151223976206818</v>
-      </c>
-      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Racismo/Base_estados_mexicanos_normalizada.xlsx
+++ b/Racismo/Base_estados_mexicanos_normalizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02335766423357664</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009999999999999998</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.3786982248520709</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05693430656934306</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.015</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08013937282229966</v>
+        <v>0.05594405594405594</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02335766423357664</v>
+        <v>0.029082774049217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.492063492063492</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5">
@@ -516,374 +516,310 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Coahuila</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.09172259507829977</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.1681574239713774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Colima</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01167883211678832</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.01098901098901098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Guanajuato</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0875912408759124</v>
+        <v>0.1789709172259508</v>
       </c>
       <c r="C8" t="n">
-        <v>0.065</v>
+        <v>0.16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3732718894009217</v>
+        <v>0.2120075046904315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Guerrero</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01313868613138686</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2367654617097824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hidalgo</t>
+          <t>Michoacán</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03503649635036496</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4725274725274725</v>
+        <v>0.4755244755244754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Jalisco</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6135662898252825</v>
+        <v>0.3319838056680161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4563758389261744</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5258889582033688</v>
+        <v>0.2158327109783421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Michoacán</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02627737226277372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Morelos</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07445255474452554</v>
+        <v>0.2505592841163311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5902964959568733</v>
+        <v>0.2510121457489878</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3985401459854014</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="C15" t="n">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4389610389610388</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Nayarit</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00145985401459854</v>
+        <v>0.1297539149888143</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.1538461538461538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Nuevo León</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2306569343065693</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C17" t="n">
-        <v>0.195</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2170329670329671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02043795620437956</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1197080291970803</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="C19" t="n">
-        <v>0.095</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.401360544217687</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1094890510948905</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08499999999999999</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3914656771799629</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sinaloa</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01167883211678832</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.6606334841628959</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06131386861313869</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="C22" t="n">
-        <v>0.075</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6883116883116882</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05401459854014598</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C23" t="n">
-        <v>0.035</v>
+        <v>0.05333333333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.326007326007326</v>
+        <v>0.3478260869565216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Tamaulipas</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02773722627737226</v>
+        <v>0.029082774049217</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8367346938775508</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Tlaxcala</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.00875912408759124</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Veracruz</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.07007299270072992</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5428571428571427</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Yucatán</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.05401459854014598</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.8534798534798536</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Zacatecas</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.02043795620437956</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Racismo/Base_estados_mexicanos_normalizada.xlsx
+++ b/Racismo/Base_estados_mexicanos_normalizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02460850111856823</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.02691511387163562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3786982248520709</v>
+        <v>0.5555555555555554</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06935123042505593</v>
+        <v>0.06944444444444443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.04554865424430642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05594405594405594</v>
+        <v>0.09523809523809512</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.029082774049217</v>
+        <v>0.04050925925925926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.02631578947368429</v>
       </c>
     </row>
     <row r="5">
@@ -510,317 +510,413 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002070393374741201</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Guanajuato</t>
+          <t>Coahuila</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09172259507829977</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1681574239713774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hidalgo</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02684563758389262</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C7" t="n">
+        <v>0.006211180124223603</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01098901098901098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Jalisco</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1789709172259508</v>
+        <v>0.08217592592592592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16</v>
+        <v>0.06211180124223603</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2120075046904315</v>
+        <v>0.2567567567567568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.01656314699792961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2367654617097824</v>
+        <v>0.2857142857142856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Michoacán</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02013422818791946</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4755244755244754</v>
+        <v>0.1111111111111112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Morelos</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08053691275167785</v>
+        <v>0.2210648148148148</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.2070393374741201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3319838056680161</v>
+        <v>0.561855670103093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4563758389261744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4266666666666667</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2158327109783421</v>
+        <v>0.6747404844290659</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Nayarit</t>
+          <t>Michoacán</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4615384615384615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Nuevo León</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2505592841163311</v>
+        <v>0.04282407407407407</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2533333333333334</v>
+        <v>0.04554865424430642</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2510121457489878</v>
+        <v>0.7249999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01565995525727069</v>
+        <v>0.3391203703703703</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.3105590062111802</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.5304054054054053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1297539149888143</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.006211180124223603</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1538461538461538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1208053691275168</v>
+        <v>0.2662037037037037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.1987577639751553</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2170329670329671</v>
+        <v>0.2489270386266094</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sinaloa</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01342281879194631</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.01242236024844721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.1052631578947367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Sonora</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04921700223713647</v>
+        <v>0.1168981481481481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05333333333333333</v>
+        <v>0.1076604554865424</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.5288461538461537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Tabasco</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06263982102908278</v>
+        <v>0.1365740740740741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2892561983471076</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Tamaulipas</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03355704697986577</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.008281573498964804</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6606334841628959</v>
+        <v>0.3636363636363635</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Veracruz</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06263982102908278</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05333333333333333</v>
+        <v>0.002070393374741201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2000000000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Yucatán</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04697986577181208</v>
+        <v>0.03009259259259259</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05333333333333333</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3478260869565216</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.07754629629629629</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05797101449275363</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2428571428571429</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.06481481481481481</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.06004140786749483</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5254237288135593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.03240740740740741</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02898550724637682</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4516129032258065</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.002070393374741201</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1030092592592593</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.07039337474120083</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1413043478260869</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.09374999999999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.08695652173913045</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5357142857142856</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
           <t>Zacatecas</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.029082774049217</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="B30" t="n">
+        <v>0.01157407407407407</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01449275362318841</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8461538461538463</v>
       </c>
     </row>
   </sheetData>
